--- a/docentes/Martinez Cortes Wendy Karyme - Estadisticos 20242.xlsx
+++ b/docentes/Martinez Cortes Wendy Karyme - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,42 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>EDUARDO EMER</t>
-  </si>
-  <si>
-    <t>DANA PAOLA</t>
-  </si>
-  <si>
-    <t>TOBIAS</t>
   </si>
 </sst>
 </file>
@@ -659,16 +623,19 @@
         <v>41</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>41</v>
       </c>
-      <c r="E2">
-        <v>41</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>8.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -682,16 +649,19 @@
         <v>35</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>35</v>
       </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -705,16 +675,19 @@
         <v>39</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>39</v>
       </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -728,16 +701,19 @@
         <v>36</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>36</v>
       </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -796,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>97.56</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -822,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>97.14</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -848,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>94.87</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -874,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>97.22</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +869,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,98 +902,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>22330051920116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>22330051920150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920071</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>22330051920124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
